--- a/medicine/Enfance/Anne_Pouget/Anne_Pouget.xlsx
+++ b/medicine/Enfance/Anne_Pouget/Anne_Pouget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Pouget, née Tolu le 7 décembre 1955, est une autrice française de romans historiques pour la jeunesse, d'ouvrages de vulgarisation et d'essais, chercheuse en histoire médiévale et animatrice d'ateliers d'écriture[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Pouget, née Tolu le 7 décembre 1955, est une autrice française de romans historiques pour la jeunesse, d'ouvrages de vulgarisation et d'essais, chercheuse en histoire médiévale et animatrice d'ateliers d'écriture.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en Sardaigne le 7 décembre 1955, Anne Pouget, née Tolu, passe son enfance à Stiring-Wendel en Lorraine avant de poursuivre ses études en puériculture aux Hospices civils à Strasbourg et de se mettre à l’écriture[2].
-En 1994 elle remporte le prix du roman jeunesse avec Le Fabuleux voyage de Benjamin, préfacé par Yves Duteil[3].
-Quelques années plus tard, elle entreprend des études en histoire médiévale à la Sorbonne, où elle a passé un master spécialisé avant de commencer une thèse de doctorat[4]. Elle est également titulaire d'un master en histoire de l'art/archéologie, obtenu à l'Institut National de l'Histoire de l'Art (INHA)  Sorbonne de Paris.
-Anne Pouget vit à Paris et se consacre désormais à l’écriture. Elle anime des ateliers de recherche et d'écriture depuis 2005, participe à des conférences ou des tables rondes. Passionnée d'histoire médiévale[1], elle a collaboré à divers travaux au Centre de recherche d'histoire et de civilisation byzantines de la Sorbonne[5]. Elle rédigé des articles pour L'Actualité de l'histoire, Historia et Histoire junior[6].
-Les Brumes de Montfaucon a remporté le Grand Prix du roman jeunesse (2004), décerné par le Ministère de la Jeunesse et des Sports, le prix Prix NRP de littérature jeunesse et le prix Val Cérou[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en Sardaigne le 7 décembre 1955, Anne Pouget, née Tolu, passe son enfance à Stiring-Wendel en Lorraine avant de poursuivre ses études en puériculture aux Hospices civils à Strasbourg et de se mettre à l’écriture.
+En 1994 elle remporte le prix du roman jeunesse avec Le Fabuleux voyage de Benjamin, préfacé par Yves Duteil.
+Quelques années plus tard, elle entreprend des études en histoire médiévale à la Sorbonne, où elle a passé un master spécialisé avant de commencer une thèse de doctorat. Elle est également titulaire d'un master en histoire de l'art/archéologie, obtenu à l'Institut National de l'Histoire de l'Art (INHA)  Sorbonne de Paris.
+Anne Pouget vit à Paris et se consacre désormais à l’écriture. Elle anime des ateliers de recherche et d'écriture depuis 2005, participe à des conférences ou des tables rondes. Passionnée d'histoire médiévale, elle a collaboré à divers travaux au Centre de recherche d'histoire et de civilisation byzantines de la Sorbonne. Elle rédigé des articles pour L'Actualité de l'histoire, Historia et Histoire junior.
+Les Brumes de Montfaucon a remporté le Grand Prix du roman jeunesse (2004), décerné par le Ministère de la Jeunesse et des Sports, le prix Prix NRP de littérature jeunesse et le prix Val Cérou.
 </t>
         </is>
       </c>
@@ -546,17 +560,88 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Anne Pouget publie plusieurs ouvrages, notamment chez les éditeurs l’Harmattan, Le Cherche midi en littérature générale, Nathan, Casterman[4] et Scrineo pour la jeunesse.
-Livres bilingues
-Contes du Vietnam (français-vietnamien, éditions l’Harmattan, 2002)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Pouget publie plusieurs ouvrages, notamment chez les éditeurs l’Harmattan, Le Cherche midi en littérature générale, Nathan, Casterman et Scrineo pour la jeunesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne_Pouget</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Pouget</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres bilingues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Contes du Vietnam (français-vietnamien, éditions l’Harmattan, 2002)
 Tuân et les crabes (français-vietnamien, éditions l’Harmattan, 2001)
 Les deux épreuves de Ziyad (français-arabe, éditions l’Harmattan, 2002).
 La moitié de fève (français-arabe, éditions l’Harmattan, 2001)
-L’arbre d’or (français-breton, éditions l’Harmattan, 2001)
-Documents
-Histoire du Moyen-Âge, Ve – XVe siècle (éditions de Vecchi, 2004)
+L’arbre d’or (français-breton, éditions l’Harmattan, 2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne_Pouget</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Pouget</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Histoire du Moyen-Âge, Ve – XVe siècle (éditions de Vecchi, 2004)
 Voyage au pays des croisades (L’Harmattan, 1999)
 Navires et navigation aux XIVe et XVe siècles (éditions l’Harmattan)
 J'imprime pas (Le Cherche-midi, 2009).
@@ -569,8 +654,43 @@
 Pour ma maman, poésies et citations choisies  (Le Cherche midi, 2016)
 A la recherche du tombeau perdu (en collaboration avec Pierre Malinowski) (Le Cherche midi, 2020)
 Les 200 meilleures ruses et tactiques de guerre depuis l'Antiquité à nos jours (Pierre de Taillac, 2021)
-Jeunesse
-Le fabuleux voyage de Benjamin (éditions Marc-Aurèle, 1994)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne_Pouget</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Pouget</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le fabuleux voyage de Benjamin (éditions Marc-Aurèle, 1994)
 Gaïa ou la création de la terre (éditions Marc-Aurèle, 1995)
 Le pêcheur de perles (L’Harmattan, 2003)
 Les Brumes de Montfaucon (Casterman, Feeling, 2005); traduction allemande VerboteneFreundschaft (éditions VerlagUrachhaus) Sélection de l’Éducation Nationale.
@@ -579,10 +699,10 @@
 Inch’Allah, si Dieu le veut (Casterman, 2010- 2018) Sélection de l’Éducation Nationale.
 Gli anni della speranza (éditions Arkadia, Italie, 2010)
 Les derniers jeux de Pompéi (Casterman, 2011, 2013) - Sélection de l’Éducation Nationale.
-Le mystère des pierres (Casterman, 2011)[8]
+Le mystère des pierres (Casterman, 2011)
 Les explorateurs (Casterman, 2012) - traduction coréenne, 2016
 Quelle épique époque opaque (Casterman, 2013)
-Par delà l'horizon, l'enfance de Christophe Colomb, Casterman, 2013[9]
+Par delà l'horizon, l'enfance de Christophe Colomb, Casterman, 2013
 La porteuse de mots (Casterman, 2014)
 Ma vie de Monstre (Scrinéo, 2018), un roman historique inspiré de la vie des Consalvès, première famille connue atteinte d'hypertrichose, plus connus sous le nom de "La Belle et la Bête"
 L'énigme Christophe Colomb (Scrinéo, 2019).
@@ -590,16 +710,50 @@
 L'horloge à l'envers - T.2 La pierre de folie (Scrinéo, 2021)
 Togo, chien de traineau (Casterman, 2023)
 Lisette, cheval indomptable (Casterman, 2023)
-Laïka, chienne cosmonaute (Casterman, 2024)
-Œuvres récompensées
-1994 : Prix du roman jeunesse, Le Fabuleux voyage de Benjamin, Marc-Aurèle.[réf. nécessaire]
-2004 : Grand Prix du roman jeunesse, Les Brumes de Montfaucon, Casterman[7].
+Laïka, chienne cosmonaute (Casterman, 2024)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anne_Pouget</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Pouget</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Œuvres récompensées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1994 : Prix du roman jeunesse, Le Fabuleux voyage de Benjamin, Marc-Aurèle.[réf. nécessaire]
+2004 : Grand Prix du roman jeunesse, Les Brumes de Montfaucon, Casterman.
 2006 : Les Brumes de Montfaucon, Casterman
-Prix NRP de littérature jeunesse[7].
-Prix Val Cérou sur l'univers Médiéval[7].
+Prix NRP de littérature jeunesse.
+Prix Val Cérou sur l'univers Médiéval.
 Prix de la ville d'Aumale[réf. nécessaire]
 2009 : Premio del municipio della citta di Escalaplano, Gli anni della speranza[réf. nécessaire].
-2011 : Prix Fulbert de Chartres, Le mystère des pierres, Casterman[7].
+2011 : Prix Fulbert de Chartres, Le mystère des pierres, Casterman.
 2014 : Prix des collégiens - biennale de l'histoire Pontivy, Les derniers jeux de Pompéi, Casterman[réf. nécessaire].
 2016 : Prix ruralivres La porteuse de mots, Casterman[réf. nécessaire];
 2023 : Prix du roman jeunesse de la Ville du Touquet Lisette, cheval indomptable, Casterman[réf. nécessaire].
